--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43031,6 +43031,43 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43068,6 +43068,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43103,6 +43103,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1105800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43138,6 +43138,41 @@
         <v>1105800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1387700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43173,41 @@
         <v>1387700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4305200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43208,6 +43208,41 @@
         <v>4305200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>326800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43243,6 +43243,41 @@
         <v>326800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1632700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,41 @@
         <v>1632700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>20580300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,41 @@
         <v>20580300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4982100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,41 @@
         <v>4982100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>23345200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         <v>23345200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>27057400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,41 @@
         <v>27057400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>28491900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,76 @@
         <v>28491900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8431600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9004500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,76 @@
         <v>9004500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>14714600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7291600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,41 @@
         <v>7291600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>14902500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,41 @@
         <v>14902500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>9585500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43663,6 +43663,41 @@
         <v>9585500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6282500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43698,6 +43698,41 @@
         <v>6282500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8823400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,76 @@
         <v>8823400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9831500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>14016600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43803,6 +43803,41 @@
         <v>14016600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>7343100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43838,6 +43838,41 @@
         <v>7343100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4003000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1520"/>
+  <dimension ref="A1:I1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53638,6 +53638,41 @@
         <v>4003000</v>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>8098600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1521"/>
+  <dimension ref="A1:I1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53673,6 +53673,41 @@
         <v>8098600</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>5650800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1522"/>
+  <dimension ref="A1:I1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53708,6 +53708,41 @@
         <v>5650800</v>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>3140200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1523"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53743,6 +53743,41 @@
         <v>3140200</v>
       </c>
     </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>2283500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1524"/>
+  <dimension ref="A1:I1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53778,6 +53778,41 @@
         <v>2283500</v>
       </c>
     </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>4586200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1525"/>
+  <dimension ref="A1:I1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53813,6 +53813,41 @@
         <v>4586200</v>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>2135300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1526"/>
+  <dimension ref="A1:I1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53848,6 +53848,41 @@
         <v>2135300</v>
       </c>
     </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>4586200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1527"/>
+  <dimension ref="A1:I1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53883,6 +53883,41 @@
         <v>4586200</v>
       </c>
     </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>16919100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1528"/>
+  <dimension ref="A1:I1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53918,6 +53918,41 @@
         <v>16919100</v>
       </c>
     </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>2543300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1529"/>
+  <dimension ref="A1:I1530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53953,6 +53953,41 @@
         <v>2543300</v>
       </c>
     </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>1639000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1530"/>
+  <dimension ref="A1:I1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53988,6 +53988,41 @@
         <v>1639000</v>
       </c>
     </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1531" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>622600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1531"/>
+  <dimension ref="A1:I1532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54023,6 +54023,41 @@
         <v>622600</v>
       </c>
     </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1532" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>744500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1532"/>
+  <dimension ref="A1:I1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54058,6 +54058,41 @@
         <v>744500</v>
       </c>
     </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1533" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>3069200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1533"/>
+  <dimension ref="A1:I1534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54093,6 +54093,41 @@
         <v>3069200</v>
       </c>
     </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1534" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>3507000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1534"/>
+  <dimension ref="A1:I1535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54128,6 +54128,41 @@
         <v>3507000</v>
       </c>
     </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1535" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>1760500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1535"/>
+  <dimension ref="A1:I1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54163,6 +54163,41 @@
         <v>1760500</v>
       </c>
     </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1536" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>692900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1536"/>
+  <dimension ref="A1:I1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54198,6 +54198,41 @@
         <v>692900</v>
       </c>
     </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1537" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>26954500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1537"/>
+  <dimension ref="A1:I1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54233,6 +54233,41 @@
         <v>26954500</v>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1538" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>10035800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1538"/>
+  <dimension ref="A1:I1539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54268,6 +54268,41 @@
         <v>10035800</v>
       </c>
     </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1539" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>4019800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1539"/>
+  <dimension ref="A1:I1540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54303,6 +54303,41 @@
         <v>4019800</v>
       </c>
     </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1540" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>2565000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1540"/>
+  <dimension ref="A1:I1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54338,6 +54338,41 @@
         <v>2565000</v>
       </c>
     </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1541" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>4146700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1541"/>
+  <dimension ref="A1:I1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54373,6 +54373,41 @@
         <v>4146700</v>
       </c>
     </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1542" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>4446300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1542"/>
+  <dimension ref="A1:I1543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54408,6 +54408,41 @@
         <v>4446300</v>
       </c>
     </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1543" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>1120500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1543"/>
+  <dimension ref="A1:I1544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54443,6 +54443,41 @@
         <v>1120500</v>
       </c>
     </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1544" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>1386100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1544"/>
+  <dimension ref="A1:I1545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54478,6 +54478,41 @@
         <v>1386100</v>
       </c>
     </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1545" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>5774800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1545"/>
+  <dimension ref="A1:I1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54513,6 +54513,76 @@
         <v>5774800</v>
       </c>
     </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1546" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>4598300</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1547" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>401500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1547"/>
+  <dimension ref="A1:I1548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54583,6 +54583,41 @@
         <v>401500</v>
       </c>
     </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1548" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>3463800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1548"/>
+  <dimension ref="A1:I1551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54618,6 +54618,111 @@
         <v>3463800</v>
       </c>
     </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1549" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>573300</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1550" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>561900</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1551" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>3548100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1551"/>
+  <dimension ref="A1:I1552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54723,6 +54723,41 @@
         <v>3548100</v>
       </c>
     </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1552" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>1269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1552"/>
+  <dimension ref="A1:I1553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54758,6 +54758,41 @@
         <v>1269000</v>
       </c>
     </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1553" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>306000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0170.xlsx
+++ b/data/0170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1553"/>
+  <dimension ref="A1:I1556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54793,6 +54793,111 @@
         <v>306000</v>
       </c>
     </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1554" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>3318600</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1555" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>6665200</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>0170</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>KANGER</t>
+        </is>
+      </c>
+      <c r="E1556" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>20858900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
